--- a/光谱仪3/第三周实验数据.xlsx
+++ b/光谱仪3/第三周实验数据.xlsx
@@ -967,6 +967,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>参考光谱</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -976,25 +1002,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1279,6 +1286,46 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>波长</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(nm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1339,6 +1386,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>参考光</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(mV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1393,37 +1481,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1475,6 +1532,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>样品光谱</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1484,25 +1565,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1787,6 +1849,41 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>波长(nm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1847,6 +1944,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>信号</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(mV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1901,37 +2039,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1983,6 +2090,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>吸收谱</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1992,25 +2123,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2305,6 +2417,56 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>波长(nm)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2365,6 +2527,43 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>吸收率</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2419,37 +2618,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4279,15 +4447,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4295,7 +4463,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4248150" y="10769600"/>
+        <a:off x="3784600" y="10845800"/>
         <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4561,8 +4729,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AM20" sqref="AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>

--- a/光谱仪3/第三周实验数据.xlsx
+++ b/光谱仪3/第三周实验数据.xlsx
@@ -4729,8 +4729,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
